--- a/pidis/expdata/10008.xlsx
+++ b/pidis/expdata/10008.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jethier/Documents/fitpack/database/pdis/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/pidis/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A963F0-21A1-7E4D-8862-596E2E6C607B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24460" windowHeight="14300" tabRatio="500"/>
+    <workbookView xWindow="32900" yWindow="2200" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="15">
   <si>
     <t>Elab</t>
   </si>
@@ -50,12 +60,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>A2p(stat)_u</t>
-  </si>
-  <si>
-    <t>A2(sys)_u</t>
-  </si>
-  <si>
     <t>col</t>
   </si>
   <si>
@@ -67,12 +71,24 @@
   <si>
     <t>HERMES</t>
   </si>
+  <si>
+    <t>stat_u</t>
+  </si>
+  <si>
+    <t>syst_u</t>
+  </si>
+  <si>
+    <t>norm_c</t>
+  </si>
+  <si>
+    <t>syst</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -92,6 +108,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,9 +145,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -137,6 +159,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -404,16 +429,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,17 +464,23 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>27.6</v>
       </c>
@@ -459,11 +493,11 @@
       <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="G2" s="3">
         <v>2.5700000000000001E-2</v>
@@ -474,11 +508,19 @@
       <c r="I2" s="3">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J2" s="3">
+        <f>H2*0.1</f>
+        <v>1.6299999999999999E-3</v>
+      </c>
+      <c r="K2" s="3">
+        <f>MAX(I2^2-J2^2,0)^0.5</f>
+        <v>5.4619685096126292E-3</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>27.6</v>
       </c>
@@ -491,11 +533,11 @@
       <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="G3" s="3">
         <v>2.69E-2</v>
@@ -506,11 +548,19 @@
       <c r="I3" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J24" si="0">H3*0.1</f>
+        <v>1.83E-3</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K24" si="1">MAX(I3^2-J3^2,0)^0.5</f>
+        <v>3.5568384838223954E-3</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>27.6</v>
       </c>
@@ -523,11 +573,11 @@
       <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>11</v>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="G4" s="3">
         <v>2.7799999999999998E-2</v>
@@ -538,11 +588,19 @@
       <c r="I4" s="3">
         <v>1.09E-2</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J4" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6500000000000002E-3</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0774390934062119E-2</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>27.6</v>
       </c>
@@ -555,11 +613,11 @@
       <c r="D5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>11</v>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="G5" s="3">
         <v>3.3E-3</v>
@@ -570,11 +628,19 @@
       <c r="I5" s="3">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J5" s="3">
+        <f t="shared" si="0"/>
+        <v>2.7500000000000003E-3</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="1"/>
+        <v>2.1650635094610966E-3</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>27.6</v>
       </c>
@@ -587,11 +653,11 @@
       <c r="D6" s="3">
         <v>3</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
+      <c r="E6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="G6" s="3">
         <v>0.14399999999999999</v>
@@ -602,11 +668,19 @@
       <c r="I6" s="3">
         <v>2.4299999999999999E-2</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J6" s="3">
+        <f t="shared" si="0"/>
+        <v>5.0700000000000007E-3</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="1"/>
+        <v>2.3765207762609607E-2</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>27.6</v>
       </c>
@@ -619,11 +693,11 @@
       <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>11</v>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="G7" s="3">
         <v>1.9E-2</v>
@@ -634,11 +708,19 @@
       <c r="I7" s="3">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J7" s="3">
+        <f t="shared" si="0"/>
+        <v>3.46E-3</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="1"/>
+        <v>7.76391653741847E-3</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>27.6</v>
       </c>
@@ -651,11 +733,11 @@
       <c r="D8" s="3">
         <v>2</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>11</v>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="G8" s="3">
         <v>4.02E-2</v>
@@ -666,11 +748,19 @@
       <c r="I8" s="3">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J8" s="3">
+        <f t="shared" si="0"/>
+        <v>2.1000000000000003E-3</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="1"/>
+        <v>3.5213633723318021E-3</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>27.6</v>
       </c>
@@ -683,11 +773,11 @@
       <c r="D9" s="3">
         <v>3</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>11</v>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="G9" s="3">
         <v>2.2499999999999999E-2</v>
@@ -698,11 +788,19 @@
       <c r="I9" s="3">
         <v>1.6400000000000001E-2</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J9" s="3">
+        <f t="shared" si="0"/>
+        <v>3.4200000000000003E-3</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6039438892928894E-2</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>27.6</v>
       </c>
@@ -715,11 +813,11 @@
       <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>11</v>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="G10" s="3">
         <v>2.6599999999999999E-2</v>
@@ -730,11 +828,19 @@
       <c r="I10" s="3">
         <v>1.11E-2</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J10" s="3">
+        <f t="shared" si="0"/>
+        <v>6.0300000000000006E-3</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="1"/>
+        <v>9.3192864533718466E-3</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>27.6</v>
       </c>
@@ -747,11 +853,11 @@
       <c r="D11" s="3">
         <v>2</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>11</v>
+      <c r="E11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="G11" s="3">
         <v>5.8400000000000001E-2</v>
@@ -762,11 +868,19 @@
       <c r="I11" s="3">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J11" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5100000000000001E-3</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="1"/>
+        <v>8.6429103894463694E-3</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>27.6</v>
       </c>
@@ -779,11 +893,11 @@
       <c r="D12" s="3">
         <v>3</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>11</v>
+      <c r="E12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="G12" s="3">
         <v>-1.37E-2</v>
@@ -794,11 +908,19 @@
       <c r="I12" s="3">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J12" s="3">
+        <f t="shared" si="0"/>
+        <v>3.1099999999999999E-3</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="1"/>
+        <v>9.7143141806305608E-3</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>27.6</v>
       </c>
@@ -811,11 +933,11 @@
       <c r="D13" s="3">
         <v>1</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>11</v>
+      <c r="E13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="G13" s="3">
         <v>-4.6600000000000003E-2</v>
@@ -826,11 +948,19 @@
       <c r="I13" s="3">
         <v>3.8899999999999997E-2</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.055E-2</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="1"/>
+        <v>3.7442055232051567E-2</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>27.6</v>
       </c>
@@ -843,11 +973,11 @@
       <c r="D14" s="3">
         <v>2</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>11</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="G14" s="3">
         <v>7.0699999999999999E-2</v>
@@ -858,11 +988,19 @@
       <c r="I14" s="3">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J14" s="3">
+        <f t="shared" si="0"/>
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="1"/>
+        <v>6.3794592247305732E-3</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>27.6</v>
       </c>
@@ -875,11 +1013,11 @@
       <c r="D15" s="3">
         <v>3</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>11</v>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="G15" s="3">
         <v>1.43E-2</v>
@@ -890,11 +1028,19 @@
       <c r="I15" s="3">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J15" s="3">
+        <f t="shared" si="0"/>
+        <v>3.9199999999999999E-3</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="1"/>
+        <v>3.4166650406500195E-3</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>27.6</v>
       </c>
@@ -907,11 +1053,11 @@
       <c r="D16" s="3">
         <v>1</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>11</v>
+      <c r="E16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="G16" s="3">
         <v>0.16750000000000001</v>
@@ -922,11 +1068,19 @@
       <c r="I16" s="3">
         <v>1.67E-2</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J16" s="3">
+        <f t="shared" si="0"/>
+        <v>9.2499999999999995E-3</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3904225976299436E-2</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>27.6</v>
       </c>
@@ -939,11 +1093,11 @@
       <c r="D17" s="3">
         <v>2</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>11</v>
+      <c r="E17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="G17" s="3">
         <v>7.1800000000000003E-2</v>
@@ -954,11 +1108,19 @@
       <c r="I17" s="3">
         <v>1.17E-2</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J17" s="3">
+        <f t="shared" si="0"/>
+        <v>3.63E-3</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1122639075327401E-2</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>27.6</v>
       </c>
@@ -971,11 +1133,11 @@
       <c r="D18" s="3">
         <v>3</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>11</v>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="G18" s="3">
         <v>3.8999999999999998E-3</v>
@@ -986,11 +1148,19 @@
       <c r="I18" s="3">
         <v>1.66E-2</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J18" s="3">
+        <f t="shared" si="0"/>
+        <v>4.3700000000000006E-3</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="1"/>
+        <v>1.601446533606414E-2</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>27.6</v>
       </c>
@@ -1003,11 +1173,11 @@
       <c r="D19" s="3">
         <v>1</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>11</v>
+      <c r="E19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="G19" s="3">
         <v>6.4000000000000003E-3</v>
@@ -1018,11 +1188,19 @@
       <c r="I19" s="3">
         <v>5.9799999999999999E-2</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J19" s="3">
+        <f t="shared" si="0"/>
+        <v>2.6160000000000003E-2</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="1"/>
+        <v>5.3774477217356564E-2</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>27.6</v>
       </c>
@@ -1035,11 +1213,11 @@
       <c r="D20" s="3">
         <v>2</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>11</v>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="G20" s="3">
         <v>-0.2064</v>
@@ -1050,11 +1228,19 @@
       <c r="I20" s="3">
         <v>0.05</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J20" s="3">
+        <f t="shared" si="0"/>
+        <v>1.704E-2</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="1"/>
+        <v>4.7006790998748257E-2</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>27.6</v>
       </c>
@@ -1067,11 +1253,11 @@
       <c r="D21" s="3">
         <v>3</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>11</v>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="G21" s="3">
         <v>4.2099999999999999E-2</v>
@@ -1082,11 +1268,19 @@
       <c r="I21" s="3">
         <v>2.06E-2</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J21" s="3">
+        <f t="shared" si="0"/>
+        <v>7.4399999999999996E-3</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9209539296922245E-2</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>27.6</v>
       </c>
@@ -1099,11 +1293,11 @@
       <c r="D22" s="3">
         <v>1</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>11</v>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="G22" s="3">
         <v>3.0230999999999999</v>
@@ -1114,11 +1308,19 @@
       <c r="I22" s="3">
         <v>0.59689999999999999</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13294999999999998</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5819054111279599</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>27.6</v>
       </c>
@@ -1131,11 +1333,11 @@
       <c r="D23" s="3">
         <v>2</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>11</v>
+      <c r="E23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="G23" s="3">
         <v>0.1197</v>
@@ -1146,11 +1348,19 @@
       <c r="I23" s="3">
         <v>0.1115</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J23" s="3">
+        <f t="shared" si="0"/>
+        <v>4.3500000000000004E-2</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="1"/>
+        <v>0.10266450214168479</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>27.6</v>
       </c>
@@ -1163,11 +1373,11 @@
       <c r="D24" s="3">
         <v>3</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>11</v>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="G24" s="3">
         <v>0.36720000000000003</v>
@@ -1178,8 +1388,16 @@
       <c r="I24" s="3">
         <v>4.19E-2</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>12</v>
+      <c r="J24" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5510000000000001E-2</v>
+      </c>
+      <c r="K24" s="3">
+        <f t="shared" si="1"/>
+        <v>3.3239282483230589E-2</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
